--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H2">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I2">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J2">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N2">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O2">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P2">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q2">
-        <v>204.7135596407782</v>
+        <v>14.08466300592267</v>
       </c>
       <c r="R2">
-        <v>1842.422036767004</v>
+        <v>126.761967053304</v>
       </c>
       <c r="S2">
-        <v>0.02355512409557107</v>
+        <v>0.01120811174796797</v>
       </c>
       <c r="T2">
-        <v>0.02355512409557107</v>
+        <v>0.01120811174796797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H3">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I3">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J3">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P3">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q3">
-        <v>16.73100098026178</v>
+        <v>42.10387083366323</v>
       </c>
       <c r="R3">
-        <v>150.579008822356</v>
+        <v>378.9348375029691</v>
       </c>
       <c r="S3">
-        <v>0.001925132878470469</v>
+        <v>0.03350487612854269</v>
       </c>
       <c r="T3">
-        <v>0.001925132878470469</v>
+        <v>0.03350487612854269</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H4">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I4">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J4">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q4">
-        <v>9.813847034296002</v>
+        <v>24.696726059654</v>
       </c>
       <c r="R4">
-        <v>88.324623308664</v>
+        <v>222.270534536886</v>
       </c>
       <c r="S4">
-        <v>0.001129218724707022</v>
+        <v>0.01965284262528379</v>
       </c>
       <c r="T4">
-        <v>0.001129218724707022</v>
+        <v>0.01965284262528379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>17.741954</v>
       </c>
       <c r="I5">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J5">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N5">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O5">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P5">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q5">
-        <v>1761.29295230516</v>
+        <v>48.15388681423467</v>
       </c>
       <c r="R5">
-        <v>15851.63657074644</v>
+        <v>433.3849813281121</v>
       </c>
       <c r="S5">
-        <v>0.2026610945215502</v>
+        <v>0.03831927993491864</v>
       </c>
       <c r="T5">
-        <v>0.2026610945215502</v>
+        <v>0.03831927993491864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.741954</v>
       </c>
       <c r="I6">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J6">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P6">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q6">
         <v>143.9484231687202</v>
@@ -818,10 +818,10 @@
         <v>1295.535808518482</v>
       </c>
       <c r="S6">
-        <v>0.01656325539476166</v>
+        <v>0.1145494224562106</v>
       </c>
       <c r="T6">
-        <v>0.01656325539476166</v>
+        <v>0.1145494224562106</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.741954</v>
       </c>
       <c r="I7">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J7">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q7">
         <v>84.43534295841201</v>
@@ -880,10 +880,10 @@
         <v>759.918086625708</v>
       </c>
       <c r="S7">
-        <v>0.009715453069779547</v>
+        <v>0.06719086988151103</v>
       </c>
       <c r="T7">
-        <v>0.009715453069779547</v>
+        <v>0.06719086988151103</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>19.230689</v>
       </c>
       <c r="H8">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I8">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J8">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N8">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O8">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P8">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q8">
-        <v>5727.251407089495</v>
+        <v>156.583500577064</v>
       </c>
       <c r="R8">
-        <v>51545.26266380546</v>
+        <v>1409.251505193576</v>
       </c>
       <c r="S8">
-        <v>0.6589994226921461</v>
+        <v>0.1246040016447502</v>
       </c>
       <c r="T8">
-        <v>0.658999422692146</v>
+        <v>0.1246040016447502</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>19.230689</v>
       </c>
       <c r="H9">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I9">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J9">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P9">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q9">
-        <v>468.0815920272457</v>
+        <v>468.0815920272456</v>
       </c>
       <c r="R9">
-        <v>4212.734328245212</v>
+        <v>4212.734328245211</v>
       </c>
       <c r="S9">
-        <v>0.05385925586171066</v>
+        <v>0.3724839414618598</v>
       </c>
       <c r="T9">
-        <v>0.05385925586171067</v>
+        <v>0.3724839414618598</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>19.230689</v>
       </c>
       <c r="H10">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I10">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J10">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q10">
         <v>274.561046834226</v>
@@ -1066,10 +1066,10 @@
         <v>2471.049421508034</v>
       </c>
       <c r="S10">
-        <v>0.03159204276130337</v>
+        <v>0.2184866541189553</v>
       </c>
       <c r="T10">
-        <v>0.03159204276130338</v>
+        <v>0.2184866541189553</v>
       </c>
     </row>
   </sheetData>
